--- a/reports/income_statement.xlsx
+++ b/reports/income_statement.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Revenue</t>
   </si>
   <si>
-    <t>June 28, 2024</t>
+    <t>June 29, 2024</t>
   </si>
   <si>
     <t>Sales</t>
@@ -35,25 +35,40 @@
     <t>Expenses</t>
   </si>
   <si>
+    <t>Loss and damage</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>5,975.00</t>
+  </si>
+  <si>
     <t>Total Expenses</t>
   </si>
   <si>
+    <t>6,095.00</t>
+  </si>
+  <si>
     <t>Net Income Before Taxes</t>
   </si>
   <si>
+    <t>-6,095.00</t>
+  </si>
+  <si>
     <t>Net Income After Taxes</t>
   </si>
   <si>
     <t>Income from Continuing Operations</t>
   </si>
   <si>
-    <t>Below-the-line Items</t>
-  </si>
-  <si>
-    <t>Loss and Damage Product</t>
+    <t>-6,735.18</t>
   </si>
   <si>
     <t>Net Income</t>
+  </si>
+  <si>
+    <t>-6,855.18</t>
   </si>
 </sst>
 </file>
@@ -61,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -78,15 +93,6 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -125,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -134,10 +140,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -494,61 +497,62 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3">
-        <v>0.0</v>
+      <c r="C6" s="4">
+        <v>120.0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.0</v>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.0</v>
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3">
-        <v>0.0</v>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>640.18</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5">
-        <v>200.0</v>
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3">
-        <v>-200.0</v>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -556,9 +560,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/reports/income_statement.xlsx
+++ b/reports/income_statement.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Revenue</t>
   </si>
   <si>
-    <t>June 29, 2024</t>
+    <t>July 1, 2024</t>
   </si>
   <si>
     <t>Sales</t>
@@ -35,25 +35,25 @@
     <t>Expenses</t>
   </si>
   <si>
-    <t>Loss and damage</t>
+    <t>Cost of goods sold</t>
   </si>
   <si>
     <t>Inventory</t>
   </si>
   <si>
-    <t>5,975.00</t>
+    <t>3,640,000,000.00</t>
   </si>
   <si>
     <t>Total Expenses</t>
   </si>
   <si>
-    <t>6,095.00</t>
+    <t>3,640,000,500.00</t>
   </si>
   <si>
     <t>Net Income Before Taxes</t>
   </si>
   <si>
-    <t>-6,095.00</t>
+    <t>-3,640,000,500.00</t>
   </si>
   <si>
     <t>Net Income After Taxes</t>
@@ -62,13 +62,7 @@
     <t>Income from Continuing Operations</t>
   </si>
   <si>
-    <t>-6,735.18</t>
-  </si>
-  <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t>-6,855.18</t>
   </si>
 </sst>
 </file>
@@ -501,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>120.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -534,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>640.18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -543,16 +537,16 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/reports/income_statement.xlsx
+++ b/reports/income_statement.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Revenue</t>
   </si>
   <si>
-    <t>July 1, 2024</t>
+    <t>August 2, 2024</t>
   </si>
   <si>
     <t>Sales</t>
@@ -35,25 +35,10 @@
     <t>Expenses</t>
   </si>
   <si>
-    <t>Cost of goods sold</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>3,640,000,000.00</t>
-  </si>
-  <si>
     <t>Total Expenses</t>
   </si>
   <si>
-    <t>3,640,000,500.00</t>
-  </si>
-  <si>
     <t>Net Income Before Taxes</t>
-  </si>
-  <si>
-    <t>-3,640,000,500.00</t>
   </si>
   <si>
     <t>Net Income After Taxes</t>
@@ -70,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -87,15 +72,6 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -125,16 +101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -436,10 +409,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,62 +464,46 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
-        <v>500.0</v>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -554,9 +511,9 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
